--- a/TEST/9F_48_WELL_NOT_MANY_FACTORS_FILLING/tube_stock/0_tube_stock.xlsx
+++ b/TEST/9F_48_WELL_NOT_MANY_FACTORS_FILLING/tube_stock/0_tube_stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,6 +957,128 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0_CTRL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3333.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1666.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3958.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4975</v>
+      </c>
+      <c r="N9" t="n">
+        <v>100</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4900</v>
+      </c>
+      <c r="P9" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4825</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0_REF</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3333.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1666.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3958.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="L10" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4975</v>
+      </c>
+      <c r="N10" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4900</v>
+      </c>
+      <c r="P10" t="n">
+        <v>175</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4825</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TEST/9F_48_WELL_NOT_MANY_FACTORS_FILLING/tube_stock/0_tube_stock.xlsx
+++ b/TEST/9F_48_WELL_NOT_MANY_FACTORS_FILLING/tube_stock/0_tube_stock.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Vol_MgSO4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Water_MgSO4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Vol_CaCl2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Water_CaCl2</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_MgSO4</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Water_MgSO4</t>
         </is>
       </c>
     </row>
@@ -579,16 +579,16 @@
         <v>4900</v>
       </c>
       <c r="P2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R2" t="n">
         <v>175</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>4825</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="3">
@@ -640,16 +640,16 @@
         <v>4900</v>
       </c>
       <c r="P3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R3" t="n">
         <v>175</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>4825</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="4">
@@ -701,16 +701,16 @@
         <v>4900</v>
       </c>
       <c r="P4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R4" t="n">
         <v>175</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>4825</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="5">
@@ -762,16 +762,16 @@
         <v>4900</v>
       </c>
       <c r="P5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R5" t="n">
         <v>175</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>4825</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="6">
@@ -823,16 +823,16 @@
         <v>4900</v>
       </c>
       <c r="P6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R6" t="n">
         <v>175</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>4825</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="7">
@@ -884,16 +884,16 @@
         <v>4900</v>
       </c>
       <c r="P7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R7" t="n">
         <v>175</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>4825</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="8">
@@ -945,16 +945,16 @@
         <v>4900</v>
       </c>
       <c r="P8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R8" t="n">
         <v>175</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>4825</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="9">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3333.3</v>
+        <v>5000</v>
       </c>
       <c r="C9" t="n">
-        <v>1666.7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>1041.7</v>
@@ -1006,16 +1006,16 @@
         <v>4900</v>
       </c>
       <c r="P9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R9" t="n">
         <v>175</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>4825</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3000</v>
       </c>
     </row>
     <row r="10">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3333.3</v>
+        <v>5000</v>
       </c>
       <c r="C10" t="n">
-        <v>1666.7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1041.7</v>
@@ -1067,16 +1067,16 @@
         <v>4900</v>
       </c>
       <c r="P10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R10" t="n">
         <v>175</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>4825</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2000</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3000</v>
       </c>
     </row>
   </sheetData>
